--- a/4. cosine similarity (sequence)/sequence.xlsx
+++ b/4. cosine similarity (sequence)/sequence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Answer</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>execute at least once. The block inside a while do statement will</t>
+  </si>
+  <si>
+    <t>1. A location in memory that can store a value. 2. The block inside a do while statement will execute at least once. 3. Data members (attributes) and member functions.</t>
+  </si>
+  <si>
+    <t>1. The block inside a do while statement will execute at least once. 2. A location in memory that can store a value. 3. Data members (attributes) and member functions.</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +478,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
